--- a/converter/data/xlsx/5.9. A SMJENA.XLSX
+++ b/converter/data/xlsx/5.9. A SMJENA.XLSX
@@ -3600,6 +3600,15 @@
     <xf numFmtId="0" fontId="21" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3685,15 +3694,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4885,6 +4885,53 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Ravni poveznik sa strelicom 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="10929938" y="10656094"/>
+          <a:ext cx="416718" cy="23812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5175,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5216,95 +5263,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="27" thickBot="1">
-      <c r="A1" s="464" t="s">
+      <c r="A1" s="467" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="464"/>
-      <c r="C1" s="464"/>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
-      <c r="F1" s="464"/>
-      <c r="G1" s="464"/>
-      <c r="H1" s="464"/>
-      <c r="I1" s="464"/>
-      <c r="J1" s="464"/>
-      <c r="K1" s="464"/>
-      <c r="L1" s="464"/>
-      <c r="M1" s="464"/>
-      <c r="N1" s="464"/>
-      <c r="O1" s="464"/>
-      <c r="P1" s="464"/>
-      <c r="Q1" s="464"/>
-      <c r="R1" s="464"/>
-      <c r="S1" s="464"/>
-      <c r="T1" s="464"/>
-      <c r="U1" s="464"/>
-      <c r="V1" s="464"/>
-      <c r="W1" s="464"/>
-      <c r="X1" s="464"/>
-      <c r="Y1" s="464"/>
-      <c r="Z1" s="464"/>
-      <c r="AA1" s="464"/>
-      <c r="AB1" s="464"/>
-      <c r="AC1" s="464"/>
-      <c r="AD1" s="464"/>
-      <c r="AE1" s="464"/>
-      <c r="AF1" s="464"/>
-      <c r="AG1" s="464"/>
-      <c r="AH1" s="464"/>
-      <c r="AI1" s="464"/>
-      <c r="AJ1" s="464"/>
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
+      <c r="J1" s="467"/>
+      <c r="K1" s="467"/>
+      <c r="L1" s="467"/>
+      <c r="M1" s="467"/>
+      <c r="N1" s="467"/>
+      <c r="O1" s="467"/>
+      <c r="P1" s="467"/>
+      <c r="Q1" s="467"/>
+      <c r="R1" s="467"/>
+      <c r="S1" s="467"/>
+      <c r="T1" s="467"/>
+      <c r="U1" s="467"/>
+      <c r="V1" s="467"/>
+      <c r="W1" s="467"/>
+      <c r="X1" s="467"/>
+      <c r="Y1" s="467"/>
+      <c r="Z1" s="467"/>
+      <c r="AA1" s="467"/>
+      <c r="AB1" s="467"/>
+      <c r="AC1" s="467"/>
+      <c r="AD1" s="467"/>
+      <c r="AE1" s="467"/>
+      <c r="AF1" s="467"/>
+      <c r="AG1" s="467"/>
+      <c r="AH1" s="467"/>
+      <c r="AI1" s="467"/>
+      <c r="AJ1" s="467"/>
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:39" ht="18">
       <c r="A2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="465" t="s">
+      <c r="B2" s="468" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="466"/>
-      <c r="D2" s="466"/>
-      <c r="E2" s="466"/>
-      <c r="F2" s="466"/>
-      <c r="G2" s="466"/>
-      <c r="H2" s="467"/>
-      <c r="I2" s="468" t="s">
+      <c r="C2" s="469"/>
+      <c r="D2" s="469"/>
+      <c r="E2" s="469"/>
+      <c r="F2" s="469"/>
+      <c r="G2" s="469"/>
+      <c r="H2" s="470"/>
+      <c r="I2" s="471" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="466"/>
-      <c r="K2" s="466"/>
-      <c r="L2" s="466"/>
-      <c r="M2" s="466"/>
-      <c r="N2" s="466"/>
-      <c r="O2" s="467"/>
-      <c r="P2" s="469" t="s">
+      <c r="J2" s="469"/>
+      <c r="K2" s="469"/>
+      <c r="L2" s="469"/>
+      <c r="M2" s="469"/>
+      <c r="N2" s="469"/>
+      <c r="O2" s="470"/>
+      <c r="P2" s="472" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="466"/>
-      <c r="R2" s="466"/>
-      <c r="S2" s="466"/>
-      <c r="T2" s="466"/>
-      <c r="U2" s="466"/>
-      <c r="V2" s="467"/>
-      <c r="W2" s="468" t="s">
+      <c r="Q2" s="469"/>
+      <c r="R2" s="469"/>
+      <c r="S2" s="469"/>
+      <c r="T2" s="469"/>
+      <c r="U2" s="469"/>
+      <c r="V2" s="470"/>
+      <c r="W2" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="466"/>
-      <c r="Y2" s="466"/>
-      <c r="Z2" s="466"/>
-      <c r="AA2" s="466"/>
-      <c r="AB2" s="466"/>
-      <c r="AC2" s="467"/>
-      <c r="AD2" s="470" t="s">
+      <c r="X2" s="469"/>
+      <c r="Y2" s="469"/>
+      <c r="Z2" s="469"/>
+      <c r="AA2" s="469"/>
+      <c r="AB2" s="469"/>
+      <c r="AC2" s="470"/>
+      <c r="AD2" s="473" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="471"/>
-      <c r="AF2" s="471"/>
-      <c r="AG2" s="471"/>
-      <c r="AH2" s="471"/>
-      <c r="AI2" s="471"/>
-      <c r="AJ2" s="472"/>
+      <c r="AE2" s="474"/>
+      <c r="AF2" s="474"/>
+      <c r="AG2" s="474"/>
+      <c r="AH2" s="474"/>
+      <c r="AI2" s="474"/>
+      <c r="AJ2" s="475"/>
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="16.5" thickBot="1">
@@ -5787,10 +5834,10 @@
       <c r="S9" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="348" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="50" t="s">
+      <c r="U9" s="348" t="s">
         <v>41</v>
       </c>
       <c r="V9" s="59" t="s">
@@ -5811,16 +5858,16 @@
       <c r="AC9" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="AD9" s="62" t="s">
+      <c r="AD9" s="466" t="s">
         <v>40</v>
       </c>
-      <c r="AE9" s="50" t="s">
+      <c r="AE9" s="348" t="s">
         <v>40</v>
       </c>
-      <c r="AF9" s="50" t="s">
+      <c r="AF9" s="348" t="s">
         <v>41</v>
       </c>
-      <c r="AG9" s="50" t="s">
+      <c r="AG9" s="348" t="s">
         <v>41</v>
       </c>
       <c r="AH9" s="50"/>
@@ -6159,8 +6206,8 @@
       <c r="Y15" s="50"/>
       <c r="Z15" s="50"/>
       <c r="AA15" s="50"/>
-      <c r="AB15" s="473"/>
-      <c r="AC15" s="474"/>
+      <c r="AB15" s="476"/>
+      <c r="AC15" s="477"/>
       <c r="AD15" s="60"/>
       <c r="AE15" s="50"/>
       <c r="AF15" s="50"/>
@@ -6789,7 +6836,7 @@
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
       <c r="H26" s="74"/>
-      <c r="I26" s="493" t="s">
+      <c r="I26" s="464" t="s">
         <v>93</v>
       </c>
       <c r="J26" s="54"/>
@@ -6865,10 +6912,10 @@
       <c r="Q27" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="R27" s="494" t="s">
+      <c r="R27" s="465" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="494" t="s">
+      <c r="S27" s="465" t="s">
         <v>93</v>
       </c>
       <c r="T27" s="76"/>
@@ -7680,42 +7727,42 @@
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
       <c r="F42" s="61"/>
-      <c r="G42" s="475"/>
-      <c r="H42" s="476"/>
+      <c r="G42" s="478"/>
+      <c r="H42" s="479"/>
       <c r="I42" s="62"/>
       <c r="J42" s="113"/>
       <c r="K42" s="54"/>
       <c r="L42" s="229"/>
       <c r="M42" s="258"/>
-      <c r="N42" s="481" t="s">
+      <c r="N42" s="484" t="s">
         <v>97</v>
       </c>
-      <c r="O42" s="485"/>
+      <c r="O42" s="488"/>
       <c r="P42" s="100"/>
       <c r="Q42" s="54"/>
       <c r="R42" s="54"/>
-      <c r="S42" s="483"/>
-      <c r="T42" s="484"/>
-      <c r="U42" s="479" t="s">
+      <c r="S42" s="486"/>
+      <c r="T42" s="487"/>
+      <c r="U42" s="482" t="s">
         <v>96</v>
       </c>
-      <c r="V42" s="480"/>
-      <c r="W42" s="477"/>
-      <c r="X42" s="478"/>
+      <c r="V42" s="483"/>
+      <c r="W42" s="480"/>
+      <c r="X42" s="481"/>
       <c r="Y42" s="54"/>
-      <c r="Z42" s="473"/>
-      <c r="AA42" s="478"/>
-      <c r="AB42" s="481" t="s">
+      <c r="Z42" s="476"/>
+      <c r="AA42" s="481"/>
+      <c r="AB42" s="484" t="s">
         <v>96</v>
       </c>
-      <c r="AC42" s="482"/>
-      <c r="AD42" s="477"/>
-      <c r="AE42" s="478"/>
+      <c r="AC42" s="485"/>
+      <c r="AD42" s="480"/>
+      <c r="AE42" s="481"/>
       <c r="AF42" s="73"/>
-      <c r="AG42" s="481" t="s">
+      <c r="AG42" s="484" t="s">
         <v>97</v>
       </c>
-      <c r="AH42" s="485"/>
+      <c r="AH42" s="488"/>
       <c r="AI42" s="131"/>
       <c r="AJ42" s="132"/>
       <c r="AK42" s="21" t="s">
@@ -7990,8 +8037,10 @@
       <c r="P47" s="100"/>
       <c r="Q47" s="54"/>
       <c r="R47" s="262"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="495" t="s">
+      <c r="S47" s="100">
+        <v>19</v>
+      </c>
+      <c r="T47" s="54" t="s">
         <v>93</v>
       </c>
       <c r="U47" s="262" t="s">
@@ -8802,10 +8851,10 @@
       <c r="AA58" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="AB58" s="490" t="s">
+      <c r="AB58" s="493" t="s">
         <v>106</v>
       </c>
-      <c r="AC58" s="491"/>
+      <c r="AC58" s="494"/>
       <c r="AD58" s="259"/>
       <c r="AE58" s="303" t="s">
         <v>46</v>
@@ -9284,49 +9333,49 @@
       <c r="A66" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="486"/>
-      <c r="C66" s="487"/>
-      <c r="D66" s="487"/>
-      <c r="E66" s="487"/>
-      <c r="F66" s="487"/>
-      <c r="G66" s="487"/>
-      <c r="H66" s="489"/>
-      <c r="I66" s="486" t="s">
+      <c r="B66" s="489"/>
+      <c r="C66" s="490"/>
+      <c r="D66" s="490"/>
+      <c r="E66" s="490"/>
+      <c r="F66" s="490"/>
+      <c r="G66" s="490"/>
+      <c r="H66" s="492"/>
+      <c r="I66" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="J66" s="487"/>
-      <c r="K66" s="487"/>
-      <c r="L66" s="487"/>
-      <c r="M66" s="487"/>
-      <c r="N66" s="487"/>
-      <c r="O66" s="489"/>
-      <c r="P66" s="486" t="s">
+      <c r="J66" s="490"/>
+      <c r="K66" s="490"/>
+      <c r="L66" s="490"/>
+      <c r="M66" s="490"/>
+      <c r="N66" s="490"/>
+      <c r="O66" s="492"/>
+      <c r="P66" s="489" t="s">
         <v>16</v>
       </c>
-      <c r="Q66" s="487"/>
-      <c r="R66" s="487"/>
-      <c r="S66" s="487"/>
-      <c r="T66" s="487"/>
-      <c r="U66" s="487"/>
-      <c r="V66" s="489"/>
-      <c r="W66" s="486" t="s">
+      <c r="Q66" s="490"/>
+      <c r="R66" s="490"/>
+      <c r="S66" s="490"/>
+      <c r="T66" s="490"/>
+      <c r="U66" s="490"/>
+      <c r="V66" s="492"/>
+      <c r="W66" s="489" t="s">
         <v>44</v>
       </c>
-      <c r="X66" s="487"/>
-      <c r="Y66" s="487"/>
-      <c r="Z66" s="487"/>
-      <c r="AA66" s="487"/>
-      <c r="AB66" s="487"/>
-      <c r="AC66" s="489"/>
-      <c r="AD66" s="486" t="s">
+      <c r="X66" s="490"/>
+      <c r="Y66" s="490"/>
+      <c r="Z66" s="490"/>
+      <c r="AA66" s="490"/>
+      <c r="AB66" s="490"/>
+      <c r="AC66" s="492"/>
+      <c r="AD66" s="489" t="s">
         <v>117</v>
       </c>
-      <c r="AE66" s="487"/>
-      <c r="AF66" s="487"/>
-      <c r="AG66" s="487"/>
-      <c r="AH66" s="487"/>
-      <c r="AI66" s="487"/>
-      <c r="AJ66" s="488"/>
+      <c r="AE66" s="490"/>
+      <c r="AF66" s="490"/>
+      <c r="AG66" s="490"/>
+      <c r="AH66" s="490"/>
+      <c r="AI66" s="490"/>
+      <c r="AJ66" s="491"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
     </row>
@@ -9659,11 +9708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
-      <c r="B1" s="492" t="s">
+      <c r="B1" s="495" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="492"/>
-      <c r="D1" s="492"/>
+      <c r="C1" s="495"/>
+      <c r="D1" s="495"/>
     </row>
     <row r="2" spans="2:6" ht="18.75" thickBot="1">
       <c r="B2" s="28"/>
